--- a/biology/Botanique/Sorbaria_sorbifolia/Sorbaria_sorbifolia.xlsx
+++ b/biology/Botanique/Sorbaria_sorbifolia/Sorbaria_sorbifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sorbaire à feuilles de sorbier, ou Fausse spirée à feuilles de sorbier (Sorbaria sorbifolia), est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbuste originaire de Sibérie et de l'Asie de l'Est.
 Son nom chinois est 珍珠梅; son nom russe, Рябинник рябинолистный.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sorbaire à feuilles de sorbier, espèce type du genre, en a donc toutes les caractéristiques :
 il s'agit d'un arbuste caduc, vivace, de taille ne dépassant pas trois mètres ;
@@ -524,7 +538,7 @@
 elles ont cinq sépales, cinq pétales, cinq pistils et de nombreuses étamines (40 à 50) (il s'agit d'une caractéristique générale de la famille) ;
 les étamines sont deux fois plus longues que les pétales ;
 les fruits sont des follicules déhiscents avec peu de graines (caractéristique de la sous-famille).
-Sorbaria sorbifolia compte 36 chromosomes[1].
+Sorbaria sorbifolia compte 36 chromosomes.
 </t>
         </is>
       </c>
@@ -553,7 +567,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de Sibérie (de l'Oural au Kamtchatka, y compris Sakhaline), de Chine, de Corée, de Mongolie et du Japon. Elle est largement répandue actuellement dans tous les pays à climat tempéré.
 Son habitat naturel est semi-forestier, sur sol frais en milieu non aride. Elle prospère en lisière de forêts et en ripisylves où elle peut former des espaces denses et impénétrables en raison de sa propension à drageonner.
@@ -585,7 +601,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette espèce avait été placée par Carl von Linné en 1753 dans le genre Spirea : Spirea sorbifolia (L.), en raison de son affinité avec les spirées.
 En 1829, Nathaniel Wallich la déplace dans le genre Schizonotus : Schizonotus sorbifolius (L.) Lindl. ex Wall. Le nom de genre était cependant invalide.
@@ -623,7 +641,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce connaît une importante diffusion comme plante ornementale en France, pour sa floraison et sa robustesse (elle résiste à des températures de -20 °C).
 La principale variété horticole est Sorbaria sorbifolia 'Sem'.
